--- a/GSE107451/processed_data/DESeq_result/DESeq_w1118_female_30_vs_3_DOWN0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_w1118_female_30_vs_3_DOWN0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,169 +38,571 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">AstA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nplp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND2</t>
+  </si>
+  <si>
     <t xml:space="preserve">mt:lrRNA</t>
   </si>
   <si>
-    <t xml:space="preserve">down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp26</t>
+    <t xml:space="preserve">sosie</t>
   </si>
   <si>
     <t xml:space="preserve">Hsromega</t>
   </si>
   <si>
-    <t xml:space="preserve">Hsp23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrv3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp83</t>
+    <t xml:space="preserve">CG14274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpcp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM4SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-2mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyt-c-p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fie</t>
   </si>
   <si>
     <t xml:space="preserve">ATPsynF</t>
   </si>
   <si>
+    <t xml:space="preserve">Gpdh</t>
+  </si>
+  <si>
     <t xml:space="preserve">COX6B</t>
   </si>
   <si>
+    <t xml:space="preserve">ND-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-ACP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obp44a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR-C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP15.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">levy</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyt-c-p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM4SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syx1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesB</t>
+    <t xml:space="preserve">CG2680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalisin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-13A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syngr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPsynCF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur-alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B14.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-13B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sod2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-15</t>
   </si>
   <si>
     <t xml:space="preserve">CG7630</t>
   </si>
   <si>
-    <t xml:space="preserve">DnaJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp70Bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNASEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alphagamma-element:CR32865</t>
+    <t xml:space="preserve">SdhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atox1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B17.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sfxn2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND-B14.5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acj6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orcokinin</t>
   </si>
   <si>
     <t xml:space="preserve">COX8</t>
   </si>
   <si>
-    <t xml:space="preserve">Mpcp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG6329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoIII</t>
+    <t xml:space="preserve">CCHa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR-Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l(3)87Df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitofilin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drep3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yippee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsp67Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpS14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMRFa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tadr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myo81F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10866</t>
   </si>
   <si>
     <t xml:space="preserve">ND-MLRQ</t>
   </si>
   <si>
-    <t xml:space="preserve">Vha13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX7C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynbeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynCF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG42392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCR-Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQCR-14</t>
+    <t xml:space="preserve">Hsepi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCR-6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR12842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRpL54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC3H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP-beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nplp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32708</t>
   </si>
   <si>
     <t xml:space="preserve">Hsp67Bc</t>
   </si>
   <si>
-    <t xml:space="preserve">Hsp27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ggamma30A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG2016</t>
+    <t xml:space="preserve">Irp-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18598</t>
   </si>
 </sst>
 </file>
@@ -563,22 +965,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>54.8719666572157</v>
+        <v>884.252095307084</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.90650523297778</v>
+        <v>-5.87221145431178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0680870027063226</v>
+        <v>0.697600713658805</v>
       </c>
       <c r="E2" t="n">
-        <v>-28.0010157180959</v>
+        <v>-8.41772569800418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000157915810223728</v>
+        <v>0.0000000000000000383863267482563</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000512436804175996</v>
+        <v>0.00000000000010842217990045</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -589,22 +991,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7022756599564</v>
+        <v>319.24293096321</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.1973269949409</v>
+        <v>-3.86218292688658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.134124821886191</v>
+        <v>0.572013456032538</v>
       </c>
       <c r="E3" t="n">
-        <v>-23.8384435481594</v>
+        <v>-6.75190921849029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000133455549273641</v>
+        <v>0.0000000000145912168955895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000216531628696482</v>
+        <v>0.0000000137376307071975</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -615,22 +1017,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1467085266325</v>
+        <v>1118.13699711049</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.58724951169583</v>
+        <v>-1.91783869929316</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0774339686821868</v>
+        <v>0.298089427042093</v>
       </c>
       <c r="E4" t="n">
-        <v>-20.4981035934036</v>
+        <v>-6.43376961847875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000223848316843794</v>
+        <v>0.00000000012447748623936</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000024212926271937</v>
+        <v>0.000000100453331395164</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -641,22 +1043,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>9.34956707187732</v>
+        <v>513.805598922659</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.79238508613362</v>
+        <v>-2.18916937085529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.138519133939841</v>
+        <v>0.373420755827068</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.158840202873</v>
+        <v>-5.86247372888158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000225096529016214</v>
+        <v>0.00000000456021778099282</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000182609559164404</v>
+        <v>0.00000214672252040237</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -667,22 +1069,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>20.3844935318511</v>
+        <v>33906.1337609541</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.3253493078574</v>
+        <v>-1.55007825924978</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0677329434998799</v>
+        <v>0.285645666324959</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.5672775960157</v>
+        <v>-5.42657719682106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000293971216587564</v>
+        <v>0.0000000574449861653791</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000190787319565329</v>
+        <v>0.0000231790519177305</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -693,22 +1095,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>7.99908514345297</v>
+        <v>259.454166537226</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.84004778147643</v>
+        <v>-5.91095968430636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0946214157578054</v>
+        <v>1.10028243063839</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.4464198906752</v>
+        <v>-5.37222036788935</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000031250275150445</v>
+        <v>0.0000000777729799600964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000016901190477199</v>
+        <v>0.0000258435037526226</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -719,22 +1121,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>6.01175913679963</v>
+        <v>17522.0752536589</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.38349731955712</v>
+        <v>-1.21465534137902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0731768547148741</v>
+        <v>0.22820087580516</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.9062146077167</v>
+        <v>-5.32274618619828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000010137806726738</v>
+        <v>0.000000102212314923389</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000469959754689497</v>
+        <v>0.0000320776315001236</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -745,22 +1147,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>6.358518366816</v>
+        <v>220.639554167145</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.37558257256299</v>
+        <v>-2.92782027804031</v>
       </c>
       <c r="D9" t="n">
-        <v>0.074754415210638</v>
+        <v>0.564591838648652</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.4013555411673</v>
+        <v>-5.18572901274669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000128119297437704</v>
+        <v>0.000000215171493041504</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000519683900231689</v>
+        <v>0.0000578811316281645</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -771,22 +1173,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>5.76883130176639</v>
+        <v>1880.64996602231</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.40980507922921</v>
+        <v>-1.43612163633082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0767098303103588</v>
+        <v>0.292039118614173</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.3784147810693</v>
+        <v>-4.91756598617924</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000195601608416836</v>
+        <v>0.000000876269237653866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000705252465902924</v>
+        <v>0.000215219344500291</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -797,22 +1199,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>6.11408949913104</v>
+        <v>1918.67310497747</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.40514106190068</v>
+        <v>-1.24690112258975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0777520508954935</v>
+        <v>0.263410309328661</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.0720771441685</v>
+        <v>-4.733683832526</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000528846205561545</v>
+        <v>0.00000220481084395749</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000171610593704721</v>
+        <v>0.000444820587768423</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -823,22 +1225,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>5.66045459152742</v>
+        <v>7328.4659477931</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.3952323813924</v>
+        <v>-1.07644729654974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.077687350549431</v>
+        <v>0.235300733933226</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.959582499916</v>
+        <v>-4.57477237132296</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000403833744625861</v>
+        <v>0.00000476738029452955</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000119130954664629</v>
+        <v>0.000792086214229337</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -849,22 +1251,22 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>3.93014750567135</v>
+        <v>2419.32835965071</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.23897108880394</v>
+        <v>-1.1672271421974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0695134296569732</v>
+        <v>0.257946261330615</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.8234780662942</v>
+        <v>-4.52507873607574</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000464562082584112</v>
+        <v>0.00000603730249427844</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000012562532983212</v>
+        <v>0.000973864248109673</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -875,22 +1277,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>8.76283621238369</v>
+        <v>299.901239494657</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.25572525997184</v>
+        <v>-1.74416421870587</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0708847192073763</v>
+        <v>0.387361324114081</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.7150346931355</v>
+        <v>-4.50268034036409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000321029505406274</v>
+        <v>0.00000671017728544023</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000801339034648738</v>
+        <v>0.00102448085095816</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -901,22 +1303,22 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>4.30191836595238</v>
+        <v>1198.94246419345</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.37505990981703</v>
+        <v>-1.25376485266315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0799820293275872</v>
+        <v>0.281867576561235</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.1921107951027</v>
+        <v>-4.44806340608237</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000304250815901327</v>
+        <v>0.00000866479548388878</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000705209926857005</v>
+        <v>0.0012880902549602</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -927,22 +1329,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>6.99484897042574</v>
+        <v>1703.73989703411</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.05343207214034</v>
+        <v>-1.50449654834284</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0612889062415669</v>
+        <v>0.34055235346645</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.1879731054148</v>
+        <v>-4.41781280625053</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000326757587492746</v>
+        <v>0.00000997047136410041</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000706885580942641</v>
+        <v>0.00140807981839508</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -953,22 +1355,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>11.400617509577</v>
+        <v>2999.67316439363</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.35195821642866</v>
+        <v>-1.20123095928886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0788091547712723</v>
+        <v>0.274018309955354</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.1548371550545</v>
+        <v>-4.38376165258657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000578319362404458</v>
+        <v>0.0000116647394638387</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000117290395687654</v>
+        <v>0.00160717349344451</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -979,22 +1381,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>5.40312765975007</v>
+        <v>248.317441295579</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.28583111925999</v>
+        <v>-2.10876765801709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0752783570117732</v>
+        <v>0.482691652834087</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.0810199677829</v>
+        <v>-4.36876760896035</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000205495025799148</v>
+        <v>0.0000124949640134836</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000392253740422492</v>
+        <v>0.00168057265981354</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1005,22 +1407,22 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>3.66670861534201</v>
+        <v>649.716754308936</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.67339254086359</v>
+        <v>-1.30728174529635</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0981082412315312</v>
+        <v>0.300981248266054</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.0565950409248</v>
+        <v>-4.34339930752355</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000312232315954556</v>
+        <v>0.0000140294795827506</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000562885480706963</v>
+        <v>0.00184308209681298</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1031,22 +1433,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>5.89202294964973</v>
+        <v>155.102324656925</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.25384085651515</v>
+        <v>-2.27572616513215</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0739579292391938</v>
+        <v>0.534054298157679</v>
       </c>
       <c r="E20" t="n">
-        <v>-16.9534337888233</v>
+        <v>-4.26122619550615</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000181534603065292</v>
+        <v>0.0000203308329969131</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000310041993129933</v>
+        <v>0.00255219723554583</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1057,22 +1459,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>4.61057423397357</v>
+        <v>4466.37554172343</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.92156109060735</v>
+        <v>-1.05871944201568</v>
       </c>
       <c r="D21" t="n">
-        <v>0.113664965480291</v>
+        <v>0.25059307456915</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.9054825511784</v>
+        <v>-4.224855151468</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000409955142417629</v>
+        <v>0.0000239094513140384</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000665152218572602</v>
+        <v>0.00293618457550006</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -1083,22 +1485,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>12.8115028228959</v>
+        <v>229.720782887858</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.37283528405734</v>
+        <v>-1.80791330077124</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0813042037275939</v>
+        <v>0.433476908623119</v>
       </c>
       <c r="E22" t="n">
-        <v>-16.8851697835571</v>
+        <v>-4.17072574064865</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000578496543142482</v>
+        <v>0.0000303631109537185</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000893914896427312</v>
+        <v>0.00357335862036575</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1109,22 +1511,22 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>20.8315112231289</v>
+        <v>6394.50871830487</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.12157352861101</v>
+        <v>-1.06352057177152</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0668663456544619</v>
+        <v>0.256864736793407</v>
       </c>
       <c r="E23" t="n">
-        <v>-16.7733636051661</v>
+        <v>-4.14039149572677</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000038224468698888</v>
+        <v>0.0000346713580672954</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000563810913308597</v>
+        <v>0.00394381968964542</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1135,22 +1537,22 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>7.41430875761743</v>
+        <v>2994.28338284945</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.22287521678535</v>
+        <v>-1.37068528754278</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0737599168880642</v>
+        <v>0.331176516997812</v>
       </c>
       <c r="E24" t="n">
-        <v>-16.5791295378104</v>
+        <v>-4.13883598984719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000986473271033206</v>
+        <v>0.000034907237472521</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000013917851150012</v>
+        <v>0.00394381968964542</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1161,22 +1563,22 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>4.81783370669584</v>
+        <v>310.428850998045</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.00056968140142</v>
+        <v>-1.88797764278452</v>
       </c>
       <c r="D25" t="n">
-        <v>0.120704100098245</v>
+        <v>0.459208956404012</v>
       </c>
       <c r="E25" t="n">
-        <v>-16.5741650844759</v>
+        <v>-4.11136938087828</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000107140651686123</v>
+        <v>0.0000393319365990242</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000144863089467279</v>
+        <v>0.00435659038917427</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1187,22 +1589,22 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>5.1233269087576</v>
+        <v>1531.88985125766</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.22528915226763</v>
+        <v>-1.22434767193773</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0741318377595846</v>
+        <v>0.300900504035485</v>
       </c>
       <c r="E26" t="n">
-        <v>-16.5285144588124</v>
+        <v>-4.06894523444647</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000228711145785672</v>
+        <v>0.0000472264452301426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000296867067229802</v>
+        <v>0.00503362620952973</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1213,22 +1615,22 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>4.83313696139827</v>
+        <v>413.028315167255</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.01223857928592</v>
+        <v>-1.39791762951276</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121870885566518</v>
+        <v>0.34462776763801</v>
       </c>
       <c r="E27" t="n">
-        <v>-16.5112329325582</v>
+        <v>-4.05631165211594</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000304596223426987</v>
+        <v>0.0000498537292873674</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000380159517315605</v>
+        <v>0.00521525401378405</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1239,22 +1641,22 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>5.07166466716404</v>
+        <v>524.409930427949</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.27667561251272</v>
+        <v>-1.44932315216296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0775157266148367</v>
+        <v>0.359885647937727</v>
       </c>
       <c r="E28" t="n">
-        <v>-16.4698915725362</v>
+        <v>-4.02717685594881</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000603785001910217</v>
+        <v>0.0000564505718592331</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000725660122666168</v>
+        <v>0.00569445143630014</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1265,22 +1667,22 @@
         <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>4.16469366837138</v>
+        <v>1860.59171892045</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.23070763555428</v>
+        <v>-1.64571181856829</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0752393874264975</v>
+        <v>0.409733096430752</v>
       </c>
       <c r="E29" t="n">
-        <v>-16.3572256187835</v>
+        <v>-4.01654597323073</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000386331769448563</v>
+        <v>0.0000590573473036085</v>
       </c>
       <c r="G29" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000447730925664495</v>
+        <v>0.00585289394593131</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1291,22 +1693,22 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>8.22774267976292</v>
+        <v>2704.14516857316</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.26690269354096</v>
+        <v>-1.40334769600457</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0776989503374649</v>
+        <v>0.353913062325556</v>
       </c>
       <c r="E30" t="n">
-        <v>-16.3052742416532</v>
+        <v>-3.96523283651414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000905316961849426</v>
+        <v>0.000073324337687846</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000101301846248324</v>
+        <v>0.00702049463726512</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1317,22 +1719,22 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>6.13567960397202</v>
+        <v>2521.06046058986</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.18256995247858</v>
+        <v>-1.03880353349359</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0740283058966762</v>
+        <v>0.263180773719965</v>
       </c>
       <c r="E31" t="n">
-        <v>-15.974564568979</v>
+        <v>-3.94711026497292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000192191789288705</v>
+        <v>0.000079100132915279</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000207887452080615</v>
+        <v>0.00727042077298863</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1343,22 +1745,22 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>4.38900253451609</v>
+        <v>1188.81190369073</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.15227734986396</v>
+        <v>-1.08608722023444</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0742668267811982</v>
+        <v>0.275838792195098</v>
       </c>
       <c r="E32" t="n">
-        <v>-15.5153707220957</v>
+        <v>-3.93739840430517</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000273053169234823</v>
+        <v>0.0000823697874794251</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000026850228308091</v>
+        <v>0.00727042077298863</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1369,22 +1771,22 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>4.93823411755433</v>
+        <v>2931.26178786715</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.16181705782868</v>
+        <v>-1.34283522903781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0761391382080354</v>
+        <v>0.339881388133306</v>
       </c>
       <c r="E33" t="n">
-        <v>-15.2591306543849</v>
+        <v>-3.95089368209575</v>
       </c>
       <c r="F33" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000143142672048921</v>
+        <v>0.0000778599090008518</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000136617050234926</v>
+        <v>0.00727042077298863</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1395,22 +1797,22 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>4.13719570987923</v>
+        <v>473.489265471465</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.17499186294391</v>
+        <v>-1.47744143613116</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0772911012440528</v>
+        <v>0.374839222210912</v>
       </c>
       <c r="E34" t="n">
-        <v>-15.2021622674747</v>
+        <v>-3.94153372589127</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000342138630839102</v>
+        <v>0.0000809622482813716</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000000000000000000000000000000000000000000000000031721138773511</v>
+        <v>0.00727042077298863</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1421,22 +1823,22 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>6.00318657956958</v>
+        <v>3154.73068390539</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.08647433331046</v>
+        <v>-1.29681980839322</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0715777268084658</v>
+        <v>0.330363580519536</v>
       </c>
       <c r="E35" t="n">
-        <v>-15.1789443693532</v>
+        <v>-3.92543211438082</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000487565286195785</v>
+        <v>0.0000865741838247873</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000439485931584812</v>
+        <v>0.00752396252963421</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -1447,22 +1849,22 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>19.3199622615464</v>
+        <v>635.350846418747</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.00354328478386</v>
+        <v>-1.33425581293461</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0664164671200086</v>
+        <v>0.342341310430171</v>
       </c>
       <c r="E36" t="n">
-        <v>-15.1098564603045</v>
+        <v>-3.89744320151733</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000139443162140168</v>
+        <v>0.0000972136125636754</v>
       </c>
       <c r="G36" t="n">
-        <v>0.000000000000000000000000000000000000000000000000122295421931039</v>
+        <v>0.0083206014753364</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1473,22 +1875,22 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>4.73936105067095</v>
+        <v>958.483797313747</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.10949960245832</v>
+        <v>-1.33299354469842</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0735519625836034</v>
+        <v>0.344318861508356</v>
       </c>
       <c r="E37" t="n">
-        <v>-15.084568290033</v>
+        <v>-3.87139275164592</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000204608540040806</v>
+        <v>0.000108215268301638</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00000000000000000000000000000000000000000000000017472492432432</v>
+        <v>0.0091240007557605</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1499,22 +1901,22 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>5.55720896139615</v>
+        <v>901.609857230009</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.06686175037239</v>
+        <v>-1.12003802826541</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0709811874713113</v>
+        <v>0.294089003236417</v>
       </c>
       <c r="E38" t="n">
-        <v>-15.0302043172156</v>
+        <v>-3.80850020211405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000465567559802255</v>
+        <v>0.000139812232148473</v>
       </c>
       <c r="G38" t="n">
-        <v>0.000000000000000000000000000000000000000000000000387376085014953</v>
+        <v>0.0111239337944609</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -1525,22 +1927,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>5.08640091787412</v>
+        <v>520.74054076373</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.10176029347059</v>
+        <v>-1.37760805405502</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0742716010308152</v>
+        <v>0.366971391168907</v>
       </c>
       <c r="E39" t="n">
-        <v>-14.8342068594087</v>
+        <v>-3.75399305560836</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000880383212954204</v>
+        <v>0.000174039686978905</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00000000000000000000000000000000000000000000000714210881509098</v>
+        <v>0.0132858134019437</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -1551,22 +1953,22 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>4.13397609194086</v>
+        <v>923.708351018136</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.12015498410049</v>
+        <v>-1.44782297737391</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0757152249055483</v>
+        <v>0.386758955742521</v>
       </c>
       <c r="E40" t="n">
-        <v>-14.7943162751988</v>
+        <v>-3.74347628122612</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000000000000000000000000000000000000000000000000159395806160842</v>
+        <v>0.000181491741841322</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0000000000000000000000000000000000000000000000126155949022422</v>
+        <v>0.0136699579954884</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -1577,22 +1979,22 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>4.58022522591064</v>
+        <v>1839.64588851117</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.09600683352292</v>
+        <v>-1.29660906427246</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0745304675028057</v>
+        <v>0.348224438041323</v>
       </c>
       <c r="E41" t="n">
-        <v>-14.7054871684746</v>
+        <v>-3.72348670175352</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000000000000000000000000000000000000000000000000594415926846592</v>
+        <v>0.000196490215258735</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0000000000000000000000000000000000000000000000459257067289807</v>
+        <v>0.0144574125317612</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -1603,22 +2005,22 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>4.14076963161285</v>
+        <v>427.948483652421</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.11121807600154</v>
+        <v>-1.33562409905123</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0757974537381067</v>
+        <v>0.358773572961102</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.6603615451383</v>
+        <v>-3.72274938766474</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00000000000000000000000000000000000000000000000115655480911076</v>
+        <v>0.000197065102663412</v>
       </c>
       <c r="G42" t="n">
-        <v>0.000000000000000000000000000000000000000000000087279543152661</v>
+        <v>0.0144574125317612</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -1629,22 +2031,22 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>6.26288019630996</v>
+        <v>1164.46337444435</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.07084332447511</v>
+        <v>-1.04427528797943</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0731489866039579</v>
+        <v>0.281367542188846</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.6392092931219</v>
+        <v>-3.71142769295876</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00000000000000000000000000000000000000000000000157893766332783</v>
+        <v>0.000206093542164658</v>
       </c>
       <c r="G43" t="n">
-        <v>0.000000000000000000000000000000000000000000000116446652670428</v>
+        <v>0.0147642896178945</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -1655,22 +2057,22 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>4.18357886041401</v>
+        <v>538.436449287414</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.07968431530378</v>
+        <v>-1.24629427758993</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0739771019684195</v>
+        <v>0.335841535638354</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.5948447097142</v>
+        <v>-3.71095932258953</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00000000000000000000000000000000000000000000000302901636187914</v>
+        <v>0.000206475284088098</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00000000000000000000000000000000000000000000021367734987604</v>
+        <v>0.0147642896178945</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -1681,22 +2083,22 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>4.01536092608415</v>
+        <v>882.631982850085</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.04870701459965</v>
+        <v>-1.12478631790849</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0730143893127265</v>
+        <v>0.307440108652532</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.3630183648862</v>
+        <v>-3.65855425578097</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0000000000000000000000000000000000000000000000882962899425455</v>
+        <v>0.000253642048991825</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00000000000000000000000000000000000000000000609620129496937</v>
+        <v>0.0170574277947002</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -1707,22 +2109,22 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>3.2415387268215</v>
+        <v>512.062544051652</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.03334786465614</v>
+        <v>-1.21736426642977</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0722257546787295</v>
+        <v>0.332666583951766</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.3071937323828</v>
+        <v>-3.65941253241798</v>
       </c>
       <c r="F46" t="n">
-        <v>0.000000000000000000000000000000000000000000000197316171035896</v>
+        <v>0.000252794108010648</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0000000000000000000000000000000000000000000133393953127392</v>
+        <v>0.0170574277947002</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -1733,22 +2135,22 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>4.12158652394556</v>
+        <v>468.010357437274</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.0636961556266</v>
+        <v>-1.26357627251276</v>
       </c>
       <c r="D47" t="n">
-        <v>0.074936791574703</v>
+        <v>0.346580110294576</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.1945783009167</v>
+        <v>-3.64584185583756</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00000000000000000000000000000000000000000000098980055272242</v>
+        <v>0.000266517848954608</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0000000000000000000000000000000000000000000655490366037603</v>
+        <v>0.0177124626911127</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
@@ -1759,22 +2161,22 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>3.54633464078607</v>
+        <v>671.065809190476</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.03978501919673</v>
+        <v>-1.24498094133597</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0752323573241984</v>
+        <v>0.343107698427764</v>
       </c>
       <c r="E48" t="n">
-        <v>-13.8209815055507</v>
+        <v>-3.62854272008728</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000000000000000000000000000000000000000000190455171942599</v>
+        <v>0.000285025590023317</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0000000000000000000000000000000000000000116608874142214</v>
+        <v>0.0187222041632758</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -1785,22 +2187,22 @@
         <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>3.08827204512144</v>
+        <v>2737.48624042755</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.06001595234056</v>
+        <v>-1.39665236940128</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0773462230583376</v>
+        <v>0.388102945621539</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.7048185473912</v>
+        <v>-3.598664697493</v>
       </c>
       <c r="F49" t="n">
-        <v>0.000000000000000000000000000000000000000000950045158804012</v>
+        <v>0.000319855262239908</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0000000000000000000000000000000000000000550517239342682</v>
+        <v>0.0205218877950269</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -1811,22 +2213,22 @@
         <v>57</v>
       </c>
       <c r="B50" t="n">
-        <v>3.82434312803995</v>
+        <v>122.578589832829</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.05354491157764</v>
+        <v>-2.02400215555108</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0773287277167758</v>
+        <v>0.563325982589659</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.6242369774446</v>
+        <v>-3.59295011788125</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00000000000000000000000000000000000000000287398323138078</v>
+        <v>0.000326955195884656</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000000000000000000000000000000000000000158069077725943</v>
+        <v>0.0205218877950269</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -1837,22 +2239,22 @@
         <v>58</v>
       </c>
       <c r="B51" t="n">
-        <v>3.07145284143814</v>
+        <v>606.637618908682</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.54381304028343</v>
+        <v>-1.6053903519439</v>
       </c>
       <c r="D51" t="n">
-        <v>0.117599585264852</v>
+        <v>0.449578921585607</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.1277082041278</v>
+        <v>-3.5708754900739</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00000000000000000000000000000000000000228466651415027</v>
+        <v>0.000355790005428512</v>
       </c>
       <c r="G51" t="n">
-        <v>0.000000000000000000000000000000000000119576497393833</v>
+        <v>0.0219461730093275</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -1863,22 +2265,22 @@
         <v>59</v>
       </c>
       <c r="B52" t="n">
-        <v>3.17980662117011</v>
+        <v>472.404142295367</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.46781092812015</v>
+        <v>-2.15454957673124</v>
       </c>
       <c r="D52" t="n">
-        <v>0.112691517553669</v>
+        <v>0.603569303820277</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.0250347140912</v>
+        <v>-3.56968050411787</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00000000000000000000000000000000000000881609801586402</v>
+        <v>0.000357416873226788</v>
       </c>
       <c r="G52" t="n">
-        <v>0.000000000000000000000000000000000000454099016848869</v>
+        <v>0.0219461730093275</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -1889,22 +2291,22 @@
         <v>60</v>
       </c>
       <c r="B53" t="n">
-        <v>9.87134670106093</v>
+        <v>990.79539999729</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.06362264086012</v>
+        <v>-1.11685726071907</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0820915149069482</v>
+        <v>0.316316742038624</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.9565478486509</v>
+        <v>-3.53081930953469</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0000000000000000000000000000000000000215740069213461</v>
+        <v>0.000414274646350849</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00000000000000000000000000000000000107704080707336</v>
+        <v>0.0242193218634002</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1915,22 +2317,22 @@
         <v>61</v>
       </c>
       <c r="B54" t="n">
-        <v>2.82303776986033</v>
+        <v>370.756342926236</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.14617939453321</v>
+        <v>-1.35395943550037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0891370932908246</v>
+        <v>0.383579676550266</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.8586130893186</v>
+        <v>-3.52979972160477</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000000000000000000000000000000000000769448512209074</v>
+        <v>0.000415874353115564</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000000000000000000000000000000000372665734644544</v>
+        <v>0.0242193218634002</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -1941,24 +2343,3508 @@
         <v>62</v>
       </c>
       <c r="B55" t="n">
-        <v>2.90421132820197</v>
+        <v>104.70405298937</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.14530167416579</v>
+        <v>-19.7202841699483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.119930097051675</v>
+        <v>5.64941416749242</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.54974357831386</v>
+        <v>-3.49067772078418</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000000000000000000013001769613473</v>
+        <v>0.000481797052081463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0000000000000000000263692139973249</v>
+        <v>0.0272733344405492</v>
       </c>
       <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>599.774047718797</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.24014465876712</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.358685433066137</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-3.45747149017467</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.000545269933627302</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0296175947601984</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>919.644155104801</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.49903188978975</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.438673357778839</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-3.41719382590247</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.000632702165217206</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0334031264608598</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2155.07104256056</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.06891051362199</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.313784024624065</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-3.40651667943457</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.000657975299623418</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.034415763588636</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2426.06856210696</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.18738741462543</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.351496712587102</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-3.37808967226456</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.000729912744433678</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0368149740473736</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>180.483019796254</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.54158732963279</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.456115841485721</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-3.37981536578805</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00072534538986483</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0368149740473736</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1324.39591943225</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.18033732044804</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.351145485260058</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3.36139113272061</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.000775509214597939</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0384285223970505</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>625.959775109699</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.08727729451089</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.324831069532844</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-3.34720843075312</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.000816298089910672</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0397833159609722</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1192.7102295717</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.43028159279838</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.428870190733283</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.33499884977522</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.000852997521009663</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0411844700528512</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>445.641313399494</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.14178083880554</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.345842082376924</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3.30145143401358</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.000961859852387949</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0452795525511627</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>344.492439498408</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.17822382339194</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.35667211419068</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-3.30338082657633</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000955265625626943</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0452795525511627</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>197.094987858279</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.8797331819259</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.57009846754417</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.29720791922715</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.000976511826395869</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0455893827050435</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1897.1539772667</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.10352367126077</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.336426145553594</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-3.28013647525789</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00103756882458064</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0480428384430823</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>99.0153440168826</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.10280127776812</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.642566935723051</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-3.27250152608916</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00106600297075819</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0485633127565568</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1376.68721602645</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.04080450987066</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.318995180373249</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-3.26275935784622</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00110333163643748</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0494660350336137</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1297.46399145844</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.28360365190374</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.395262900304442</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-3.2474680798908</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00116436723931522</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0517914215345801</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>567.334952775104</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.18062530053433</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.364155411300576</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-3.24209187587723</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0011865576312784</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0523661254616538</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>669.625378253672</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.29942698389389</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.401931252258738</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3.23295831461596</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00122515438575225</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0528312757642324</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>687.106985557652</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.05699188103112</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.327560563164751</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-3.22685939607294</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0012515694484878</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0535614834432391</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>414.903736398853</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.1496971636194</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.356734583991689</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.22283629121358</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00126928074072433</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0539110293560282</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>384.283605724187</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.15501455169094</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.359442297473134</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.21335179474048</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0013119548704215</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0540393724122003</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>401.109206866896</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.42904674764225</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.446532844812933</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3.20031720900828</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00137276413473941</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0557895294758483</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>740.843854976196</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.01542951817818</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.319311297219734</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.18006136024501</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.00147243870235441</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0589915335432629</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>420.683442209307</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.08678987848392</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.341582162544257</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.18163533595849</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00146446083217699</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0589915335432629</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>453.95081434044</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.13259628019747</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.357083100022042</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.17180028998167</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.00151497150529783</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0602681269959679</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>627.990147301627</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.22361436661464</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.389553644337642</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-3.14106769221771</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0016833312037922</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0656587663687352</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>154.432272263286</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.71527746484416</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.546787274297887</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-3.13701058066264</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00170679967639834</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0660391189861248</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>574.7613155703</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.35388405225376</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.43477863619377</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-3.11396177168734</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.001845934050808</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0699844392819758</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>929.160706755583</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.12192880498099</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.36114126990916</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-3.10662031305145</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00189239284476565</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0712675145338743</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2548.01541076821</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.23070111131435</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.397876223444756</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-3.09317581397329</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00198026779604039</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0717085434604626</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>784.907060005574</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.18160746413734</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.382478732151964</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-3.08934161512507</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.00200600633540351</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0721778967432765</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>63.2796016018674</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-4.8774872718303</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.58377924062149</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-3.07965096822226</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.00207243307879628</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0740960408994949</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>452.284796768991</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.20813438413001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.397019265524531</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-3.04301198717361</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00234223002790838</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0806783989491124</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1977.47416265607</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.17238766267448</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.386083745658461</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-3.03661492061777</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.00239250888207959</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0814173655112505</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>198.108899849336</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.4627027803038</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.486180746167188</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3.00855760298004</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00262491036093827</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0857886578771839</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1065.01210096901</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.12424247231656</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.375250206340238</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-2.99598095702902</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.00273563516967546</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0886955163480334</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>420.978645594145</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.4059513448467</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.473021351185661</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.97227882276896</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0029559810405164</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.091754503193424</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>447.679622348072</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.23311873394228</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.417628165033405</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.95267138853924</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00315037132290336</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0956798258230165</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>991.446712627654</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.0045350862435</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.341065587293918</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.94528420241302</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00322658136970711</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0974703644784783</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>363.211240680664</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.16382720538321</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.395712285084993</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-2.94109444980521</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.00327054793717222</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0982730068993928</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>351.04461560188</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.00565728215348</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.342899842863309</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-2.93280181686863</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00335918243340656</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.099788322209504</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>51.5983347348769</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.57043063897283</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.55910900755248</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.93143751773173</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00337397230341923</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.099788322209504</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>218.176092026492</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.27842131502516</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.440125095484131</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-2.90467716597463</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00367632076494332</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.106500184621358</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>37.9067190428444</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-6.5965006722226</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.26999518593319</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.90595359545258</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00366135743690104</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.106500184621358</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>241.585705040093</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.15930290124745</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.400882366920776</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-2.89187800938263</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00382946607751566</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.109810425745614</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>256.65300305892</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.11147696809869</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.386536219135498</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.8754794843923</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.004034143609541</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.113944386251485</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>465.070491873524</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.02129465405889</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.357470971867111</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.85700024459203</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00427665508574198</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.118050005800198</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1653.30997034477</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.11500980620821</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.390347218552535</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-2.85645638860405</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00428398852700313</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.118050005800198</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>223.854751010322</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.14801646412023</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.405109860375082</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.83383984546145</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00459923754549083</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.12490910045422</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>218.385289173813</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.46720100832413</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.528785352669287</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.77466272641206</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.00552589816471885</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.14058140204248</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>100.446554145182</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.71703379636082</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.620168977067902</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-2.76865476967066</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0056288244013552</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.14058140204248</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>127.016736343555</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.39565779203791</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.507526279955144</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-2.74992221518314</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.00596094130361219</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.145772110061062</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>94.7288666389674</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.75129737328057</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.642542155565802</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-2.72557583671445</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00641894285911304</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.154300460472892</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>103.566771611173</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.52890058817053</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.565682742423015</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.70275275081173</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.00687678788572542</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.163222583052365</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>60.2687847430273</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-2.12749373524421</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.793890591693151</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.67983240701574</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.00736590286509763</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.172655540601396</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>192.285135990608</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.31030511376575</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.49222703082458</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.66199341302066</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.00776793985680253</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.179840542012613</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>127.66864610934</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1.4930917364184</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.560663827796863</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-2.66307841239826</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00774293687986865</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.179840542012613</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1818.76090065289</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.13420135958926</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.426434410721565</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.65973226145162</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00782027896873424</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.180313289364815</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>374.356916405627</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.37031029737853</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.51694539456919</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.65078345174255</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.00803053111398858</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.182186627561934</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>654.487859700756</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.09348153866894</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.413445279875834</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-2.64480353723554</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00817383593239823</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.18469599672847</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>106.196939119181</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.47017471786826</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.557163736668703</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.63867624741423</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.00832304239243052</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.185105773522992</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>837.966787436796</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.04905771832613</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.398334764723872</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-2.63360823917376</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.00844829032309395</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.186500712931688</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>260.208347770531</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.03630738231628</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.395332919042678</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.62135362981095</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.00875813619205756</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.189983102146275</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>292.371912679282</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-9.5354810796805</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.63824077550501</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-2.62090435132263</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00876968627988262</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.189983102146275</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2310.38876461015</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.23723471150166</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.473955820206121</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-2.61044312308179</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.00904250072841525</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.194965979445869</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>28.7287851787503</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-6.19889511123167</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.37829420990214</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.60644586587408</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.00914872842569467</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.195761995745262</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>178.201002279813</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.12884461913578</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.433785076331622</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-2.60231317472248</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.00925972512934101</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.197389385870367</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="n">
+        <v>345.78551355066</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.13375201807571</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.436664097526823</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-2.59639394330115</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.009420798419691</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.197836766813511</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="n">
+        <v>90.2291166031499</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.53993960853897</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5965656236842</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-2.58134151114641</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.00984171694421651</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.201347761786677</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="n">
+        <v>133.596259552736</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.56693946648179</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.613566592354419</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-2.55382135534632</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0106547907265888</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.210450744106643</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1761.09357592675</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.04608007539902</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.413148102413766</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.53197356901177</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0113422540576705</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.220939286799244</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>568.697090883114</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-7.04901564213675</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.79730646475753</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.51992970056921</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0117378274354829</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.225375986134253</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1822.73575720356</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.05079474227464</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.417772512955793</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-2.51523187784695</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.011895411880096</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.226253137072938</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>161.713247870542</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.18616126302135</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.472249807365194</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.51172418606004</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0120142947776552</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.226985789963125</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>139.91850121231</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.2597392910568</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.50270820334496</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-2.50590557837459</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0122138231297193</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.22788484612673</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>116.037529531282</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.33562732564868</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.533261213909908</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-2.50463992281713</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0122576110819474</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.22788484612673</v>
+      </c>
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="n">
+        <v>223.067321650673</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.02673906733853</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.412574096320702</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-2.48861738168948</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0128240895892313</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.233688006740541</v>
+      </c>
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="n">
+        <v>160.421828991147</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.11467717946081</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.453528785152557</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-2.45778705994563</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0139796036735675</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.246783691099946</v>
+      </c>
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="n">
+        <v>32.6160604917785</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-3.90103695068479</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.59317025855721</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-2.44860016042329</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0143412550260222</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.250816562359131</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>193.049166166049</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.02687223405825</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.421760169439354</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-2.43473022932268</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0149028958272501</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.259834748543629</v>
+      </c>
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="n">
+        <v>136.790656331581</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.2833724654572</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.528172001287454</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-2.42983812532451</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0151055676725296</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.261586944621278</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="n">
+        <v>131.218158442865</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-1.22404822058281</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.504443904599165</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-2.42652990634399</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0152439938714545</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.261767057099015</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>265.145901193986</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.00510640275597</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.415759568855631</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-2.41751838814559</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0156267444192306</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.264297841988723</v>
+      </c>
+      <c r="H137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="n">
+        <v>201.355459454015</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.0147073154545</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.421804887780677</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-2.40563195176181</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0161445204760434</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.27142975050348</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="n">
+        <v>274.986399273188</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.03526172483704</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.43238978421009</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-2.39427887207904</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0166530816666435</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.276379257840721</v>
+      </c>
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="n">
+        <v>169.657694661477</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-1.04853590863782</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.44005022285268</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-2.38276418050775</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0171831978127749</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.28199010007491</v>
+      </c>
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="n">
+        <v>213.448097814428</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.03153105114605</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.433470926509767</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-2.3797006628605</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0173267065102932</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.282886026233081</v>
+      </c>
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="n">
+        <v>289.316210751031</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.05950023151942</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.449592234098833</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-2.35658036585772</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0184440761860199</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.295157468483927</v>
+      </c>
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1415.67843308067</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-1.01446531331813</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.432572032293732</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-2.3451939505633</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0190171841789249</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.302614291342949</v>
+      </c>
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="n">
+        <v>253.790706673849</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-1.28062863934416</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.547087694758957</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-2.3408105347871</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0192419290930774</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.304853690577736</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="n">
+        <v>252.826134544842</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-1.02358240397653</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.438879417779736</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-2.33226340199496</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0196868385877118</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.308919308838844</v>
+      </c>
+      <c r="H145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="n">
+        <v>37.8192987247079</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-2.47734804358635</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.06417951925123</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.32794185451854</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0199151913860659</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.30991987917324</v>
+      </c>
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="n">
+        <v>175.366203882894</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-1.10728836403171</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.477481147138192</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-2.31902007161603</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0203939480334078</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.313421828862491</v>
+      </c>
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="n">
+        <v>195.709123115029</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-1.05467127745394</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.45525990086641</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-2.31663556453531</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0205235923265107</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.314194506917233</v>
+      </c>
+      <c r="H148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="n">
+        <v>191.206248051918</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-1.00776474526404</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.436112440915188</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-2.31079109586792</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0208443965758285</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.316532248002299</v>
+      </c>
+      <c r="H149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="n">
+        <v>174.715625556427</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-1.20571586134878</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.522511945291206</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.30753741079892</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0210248791595872</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.317565621316867</v>
+      </c>
+      <c r="H150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="n">
+        <v>37.2202432015251</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-3.05115573972973</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.32853550603214</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-2.29663093374331</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0216398324449157</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.325115461386512</v>
+      </c>
+      <c r="H151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="n">
+        <v>60.8117832093463</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-7.26972774254813</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3.16489120224551</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-2.2969913586256</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0216192626956557</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.325115461386512</v>
+      </c>
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="n">
+        <v>60.2802253817021</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1.67131758242549</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.731171178842825</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-2.28580889234525</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0222654412373904</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.331110469943974</v>
+      </c>
+      <c r="H153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="n">
+        <v>213.399423360169</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-1.10397067841037</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.484696691215939</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-2.27765259886732</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0227472839907728</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.33212479871782</v>
+      </c>
+      <c r="H154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="n">
+        <v>146.535179490326</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-1.14276784486255</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.502885936114338</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-2.27241957429234</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0230611805545478</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.332440596236943</v>
+      </c>
+      <c r="H155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" t="n">
+        <v>40.8525681969742</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-2.14681369813911</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.951421048695291</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-2.2564286349173</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0240438000039943</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.340026669993423</v>
+      </c>
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2169.89555472141</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-1.00515518293849</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.448183519646009</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-2.24273124485343</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0249141505220244</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.348366426482465</v>
+      </c>
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="n">
+        <v>35.2136388751221</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-2.36162990037605</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.05442466419584</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-2.23973317446738</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0251082505047798</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.349351002713056</v>
+      </c>
+      <c r="H158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="n">
+        <v>55.8819142929614</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-1.76900873694936</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.790434286682734</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-2.23802125838123</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.0252196688600133</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.350039089410847</v>
+      </c>
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" t="n">
+        <v>90.0004419759196</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.42289905564053</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.639554736127076</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-2.22482764220796</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.0260928109804319</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.357762837933155</v>
+      </c>
+      <c r="H160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="n">
+        <v>165.203621464707</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-1.16761010129611</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.52720072591873</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-2.21473538235626</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0267782327641485</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.36450659490283</v>
+      </c>
+      <c r="H161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="n">
+        <v>343.814409611472</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-1.02302865058805</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.465190773374896</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-2.19915937533781</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.027866591839084</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.37480566023568</v>
+      </c>
+      <c r="H162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="n">
+        <v>352.005645087209</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-6.35479222605134</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.90557262977036</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-2.18710493103508</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0287348647562852</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.382837856151545</v>
+      </c>
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="n">
+        <v>57.4568611519828</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-1.595497397428</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.733832215788861</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-2.17419917400719</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0296901803906693</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.392929796858283</v>
+      </c>
+      <c r="H164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1161.59098943762</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-1.00412246446534</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.462854738105666</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-2.1694116572619</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.030051444735093</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.396636942309674</v>
+      </c>
+      <c r="H165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="n">
+        <v>92.7800012100784</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.24730615791666</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.577127709220533</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-2.16123076052139</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0306775183840073</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.398384600807487</v>
+      </c>
+      <c r="H166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="n">
+        <v>39.7661456520714</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-2.09730488910049</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.976500719905937</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-2.1477760808026</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0317315480568313</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.408317801760912</v>
+      </c>
+      <c r="H167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="n">
+        <v>48.0561644286946</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-1.77384510789425</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.830387756327946</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-2.13616481502372</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0326659822423247</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.417488990241838</v>
+      </c>
+      <c r="H168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="n">
+        <v>140.004652352031</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-1.00231230613113</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.469824437569769</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-2.13337626990143</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0328938721024652</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.419452558706153</v>
+      </c>
+      <c r="H169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="n">
+        <v>61.252952240891</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-1.51207779731237</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.711400736873386</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-2.12549371815099</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0335454376864592</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.424883806033202</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" t="n">
+        <v>124.65276058007</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-1.20194297982602</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.566036576004997</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-2.12343694873776</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0337172537617416</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.426104623042681</v>
+      </c>
+      <c r="H171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" t="n">
+        <v>280.988120621209</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-9.47802230261828</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.46616668350867</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-2.12218284140981</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0338223868713477</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.4264791594559</v>
+      </c>
+      <c r="H172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" t="n">
+        <v>53.2300452816986</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.69296493396709</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.80020213838649</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-2.11567159440582</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0343727480789395</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.431492564217621</v>
+      </c>
+      <c r="H173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" t="n">
+        <v>60.3012797633442</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.48682015242305</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.713354306170213</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-2.08426603661418</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0371359748923868</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.454071693002366</v>
+      </c>
+      <c r="H174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="n">
+        <v>106.060738443348</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-1.10110344300642</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.529878548980405</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-2.07802985254861</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0377066096824639</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.45747485054137</v>
+      </c>
+      <c r="H175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" t="n">
+        <v>103.257138706607</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-1.14420440963524</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.551408467019212</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-2.07505774407229</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0379811833782798</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.45747485054137</v>
+      </c>
+      <c r="H176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" t="n">
+        <v>85.3541855976828</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-1.21653569753132</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.586857246119426</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-2.07296698741579</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0381753519907627</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.457861068780932</v>
+      </c>
+      <c r="H177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" t="n">
+        <v>482.980707765615</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-1.0313628263972</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.498670312833619</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-2.06822583950634</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0386187915596683</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.460791032113164</v>
+      </c>
+      <c r="H178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" t="n">
+        <v>49.9199645489952</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-1.83862586498981</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.894391192201626</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-2.0557289483854</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0398086499773136</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.468498049420509</v>
+      </c>
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="n">
+        <v>36.9610202714663</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-2.45073317585768</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.20200572865334</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-2.03886979690466</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0414630240042246</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.477035891242087</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="n">
+        <v>172.30478083884</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-6.32425799339523</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.11328913603378</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-2.03137508822971</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0422169595360209</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.481785059432287</v>
+      </c>
+      <c r="H181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" t="n">
+        <v>41.4781016965882</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-1.81857117892844</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.89705358791957</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-2.02727150687401</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0426346537774323</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.483620801583765</v>
+      </c>
+      <c r="H182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" t="n">
+        <v>33.8267633205139</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-2.31431913690388</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.14713452761018</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-2.01747840484349</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0436456124155695</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.490167126313225</v>
+      </c>
+      <c r="H183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>191</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1011.80266663343</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-3.48400992770511</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.72865903420645</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-2.01544078893758</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0438584842470936</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.490607084181845</v>
+      </c>
+      <c r="H184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" t="n">
+        <v>83.967435845093</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.18597734550923</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.592277146594335</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-2.00240267977372</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0452414405070466</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.500134828618995</v>
+      </c>
+      <c r="H185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="n">
+        <v>57.7163361773159</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.41322775025547</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.713009339839706</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-1.98206064253406</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0474724538245223</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.514725319874715</v>
+      </c>
+      <c r="H186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="n">
+        <v>130.986135646238</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-1.01027898533752</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.511398820271861</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-1.9755207585353</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0482090812472071</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.519907442176333</v>
+      </c>
+      <c r="H187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>195</v>
+      </c>
+      <c r="B188" t="n">
+        <v>61.8340113030215</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-1.35254925800128</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.688304059684782</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-1.96504617250215</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0494088937546164</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.529622088842179</v>
+      </c>
+      <c r="H188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" t="n">
+        <v>38.2373586367729</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-2.50195632944596</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.27560325855135</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-1.9613906696094</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0498334675813587</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.533161474180105</v>
+      </c>
+      <c r="H189" t="s">
         <v>9</v>
       </c>
     </row>
